--- a/data/income_statement/3digits/total/749_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/749_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>749-Other professional, scientific and technical activities n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>749-Other professional, scientific and technical activities n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>315523.22363</v>
@@ -959,34 +865,39 @@
         <v>394465.0202500001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>533319.49208</v>
+        <v>533366.09481</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>772747.4168400001</v>
+        <v>773968.5805400001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1343661.00114</v>
+        <v>1347326.30474</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1733602.548</v>
+        <v>1766306.03614</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2579599.21441</v>
+        <v>2579910.80684</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>3189525.79126</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3192943.6885</v>
+        <v>3198675.09548</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3568646.24388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3610106.44653</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4298169.648</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>257478.51185</v>
@@ -998,55 +909,60 @@
         <v>324963.26778</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>463558.89613</v>
+        <v>463564.7046</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>687701.65452</v>
+        <v>688804.4104500001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1207571.62727</v>
+        <v>1211213.75701</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1541174.59151</v>
+        <v>1571927.62446</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2369424.2755</v>
+        <v>2369626.685109999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2859550.728</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2832869.45334</v>
+        <v>2838360.655100001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3109690.31187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3146276.70971</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3663689.725</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>43586.7689</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>37254.43398</v>
+        <v>37254.43397999999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>55199.83345000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>59311.80064</v>
+        <v>59352.5949</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>66923.99062000001</v>
+        <v>67018.32062</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>90589.13993999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>152028.77117</v>
+        <v>153642.36718</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>145594.49156</v>
@@ -1055,16 +971,21 @@
         <v>255442.22369</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>287466.72834</v>
+        <v>287655.71178</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>372931.53058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>375376.88506</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>519276.777</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>14457.94288</v>
@@ -1079,31 +1000,36 @@
         <v>10448.79531</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>18121.7717</v>
+        <v>18145.84947</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>45500.23392999999</v>
+        <v>45523.40779</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>40399.18532</v>
+        <v>40736.0445</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>64580.44735</v>
+        <v>64689.63017</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>74532.83957</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>72607.50682000001</v>
+        <v>72658.72859999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>86024.40143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>88452.85176000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>115203.146</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1189.31918</v>
@@ -1118,13 +1044,13 @@
         <v>2438.7118</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2675.39288</v>
+        <v>2679.28309</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7897.14268</v>
+        <v>7909.122729999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>13433.35878</v>
+        <v>13503.86433</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>15139.54145</v>
@@ -1133,19 +1059,24 @@
         <v>32105.58934</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>19590.85743</v>
+        <v>19591.93614</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>50607.82483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>51549.02328</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>47476.414</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>944.0246900000001</v>
+        <v>944.02469</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>1079.71182</v>
@@ -1157,13 +1088,13 @@
         <v>1848.32371</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2274.90212</v>
+        <v>2276.65377</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7229.545889999999</v>
+        <v>7241.52594</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8397.353720000001</v>
+        <v>8458.376190000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>13309.96502</v>
@@ -1172,16 +1103,21 @@
         <v>30313.75033</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>18037.58152</v>
+        <v>18038.18099</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>49256.89098999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>50176.30244000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>40241.295</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>194.93116</v>
@@ -1196,13 +1132,13 @@
         <v>329.84194</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>330.65844</v>
+        <v>332.797</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>443.73126</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4723.919080000001</v>
+        <v>4731.74306</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1427.95643</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>576.58505</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>4008.976</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>50.36333</v>
@@ -1241,7 +1182,7 @@
         <v>223.86553</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>312.08598</v>
+        <v>313.74508</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>401.62</v>
@@ -1250,16 +1191,21 @@
         <v>439.07984</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>487.6666700000001</v>
+        <v>488.14591</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>774.34879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>796.13579</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3226.143</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>314333.90445</v>
@@ -1268,37 +1214,42 @@
         <v>344121.77049</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>392876.69071</v>
+        <v>392876.6907100001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>530880.7802799999</v>
+        <v>530927.38301</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>770072.02396</v>
+        <v>771289.2974500001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1335763.85846</v>
+        <v>1339417.18201</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1720169.18922</v>
+        <v>1752802.17181</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2564459.67296</v>
+        <v>2564771.26539</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3157420.20192</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3173352.83107</v>
+        <v>3179083.15934</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3518038.41905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3558557.42325</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4250693.234</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>198861.75525</v>
@@ -1310,34 +1261,39 @@
         <v>230696.28552</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>317894.17301</v>
+        <v>318063.96726</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>448464.1539999999</v>
+        <v>449672.9292</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>750402.3046499999</v>
+        <v>752707.4031700001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1004209.19185</v>
+        <v>1028481.17589</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1654057.44476</v>
+        <v>1654165.05995</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2101569.10926</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2066380.42914</v>
+        <v>2069405.39136</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2315234.96999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2341772.75065</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2803801.393</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>9390.774300000001</v>
@@ -1358,7 +1314,7 @@
         <v>7204.56138</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>15815.79029</v>
+        <v>15836.87284</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>30927.8778</v>
@@ -1367,16 +1323,21 @@
         <v>32188.44957</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>64773.30388000001</v>
+        <v>64773.30387999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>45375.56199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>48105.9222</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>49422.206</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>38464.52388</v>
@@ -1394,10 +1355,10 @@
         <v>45705.60876</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>77368.51403000001</v>
+        <v>78264.32508</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>111927.79945</v>
+        <v>112207.66825</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>353103.61209</v>
@@ -1406,16 +1367,21 @@
         <v>295707.90838</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>177516.32112</v>
+        <v>178103.76609</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>260809.37312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>261628.90359</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>590224.515</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>149523.85922</v>
@@ -1427,34 +1393,39 @@
         <v>181605.52321</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>261430.8564</v>
+        <v>261600.65065</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>396952.03822</v>
+        <v>398160.81342</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>663929.0205</v>
+        <v>665338.3079700001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>873244.45477</v>
+        <v>897215.4874600001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1254100.37522</v>
+        <v>1254209.20041</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1764858.13674</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1812295.92858</v>
+        <v>1814649.88969</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1996724.64236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2019390.60735</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2146767.505</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1482.59785</v>
@@ -1466,7 +1437,7 @@
         <v>1526.61437</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>855.47991</v>
+        <v>855.4799099999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>1692.77194</v>
@@ -1478,22 +1449,27 @@
         <v>3221.14734</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>15925.57965</v>
+        <v>15924.36965</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>8814.61457</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11794.87556</v>
+        <v>11878.4317</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>12325.39252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12647.31751</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>17387.167</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>115472.1492</v>
@@ -1505,37 +1481,42 @@
         <v>162180.40519</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>212986.60727</v>
+        <v>212863.41575</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>321607.86996</v>
+        <v>321616.3682499999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>585361.55381</v>
+        <v>586709.7788399999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>715959.99737</v>
+        <v>724320.9959199999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>910402.2281999999</v>
+        <v>910606.20544</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1055851.09266</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1106972.40193</v>
+        <v>1109677.76798</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1202803.44906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1216784.6726</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1446891.841</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>98338.87891999999</v>
+        <v>98338.87892000002</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>96808.25324999999</v>
@@ -1547,31 +1528,36 @@
         <v>174352.02391</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>259312.25487</v>
+        <v>259313.1358</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>420651.7875800001</v>
+        <v>421954.49897</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>533026.9713799999</v>
+        <v>540381.26661</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>667303.47499</v>
+        <v>669092.5801600001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>805812.4931299998</v>
+        <v>805812.49313</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>884356.59905</v>
+        <v>887709.58464</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>981424.8958800001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>996114.7699099998</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1094955.837</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>491.04461</v>
@@ -1589,13 +1575,13 @@
         <v>7395.75884</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4437.6533</v>
+        <v>4437.653300000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>9174.27506</v>
+        <v>9238.90468</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>6727.966780000001</v>
+        <v>6727.966780000002</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>10776.27726</v>
@@ -1604,19 +1590,24 @@
         <v>11222.82636</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>16119.91556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16129.7014</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>15932.417</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5237.253110000001</v>
+        <v>5237.25311</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6819.13223</v>
+        <v>6819.132229999999</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>7482.68936</v>
@@ -1625,37 +1616,42 @@
         <v>8984.901390000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>20101.13343</v>
+        <v>20102.01436</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>36482.41997</v>
+        <v>36585.51745</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>53610.89643000001</v>
+        <v>54448.1135</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>71594.87254</v>
+        <v>71598.55752000002</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>79421.70801999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>93477.36968</v>
+        <v>93904.50709</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>117936.37609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>119194.86145</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>126896.691</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>92610.5812</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>89382.87720999999</v>
+        <v>89382.87721000001</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>123508.21603</v>
@@ -1667,28 +1663,33 @@
         <v>231815.3626</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>379731.71431</v>
+        <v>380931.32822</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>470241.79989</v>
+        <v>476694.2484299999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>588980.63567</v>
+        <v>590766.05586</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>715614.5078499999</v>
+        <v>715614.5078500001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>779656.40301</v>
+        <v>782582.2511900001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>847368.6042300001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>860790.2070599999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>952126.7290000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>17133.27028</v>
@@ -1700,34 +1701,39 @@
         <v>30814.16904</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>38634.58336</v>
+        <v>38511.39184</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>62295.61509</v>
+        <v>62303.23245</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>164709.76623</v>
+        <v>164755.27987</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>182933.02599</v>
+        <v>183939.72931</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>243098.75321</v>
+        <v>241513.62528</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>250038.59953</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>222615.80288</v>
+        <v>221968.18334</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>221378.55318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>220669.90269</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>351936.004</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>53357.97584</v>
@@ -1739,34 +1745,39 @@
         <v>111972.03102</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>41529.68342</v>
+        <v>41529.70409000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>48948.95567</v>
+        <v>48949.19109</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>35432.90347</v>
+        <v>35444.71765000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>90624.20885000001</v>
+        <v>91483.13352000002</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>134630.52436</v>
+        <v>134772.38995</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>132327.9867</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>194151.26562</v>
+        <v>194180.57479</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>130141.22499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>131023.97943</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>171001.327</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>12044.58982</v>
@@ -1790,22 +1801,27 @@
         <v>38182.01215</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>59027.82184999999</v>
+        <v>59027.82185</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>25924.41667</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>329.41382</v>
+        <v>329.4138199999999</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>44766.88186</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5746.136</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>20513.45175</v>
@@ -1838,16 +1854,21 @@
         <v>296.62651</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0.00444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>370.50723</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4045.539749999999</v>
+        <v>4045.53975</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>3096.323</v>
@@ -1862,28 +1883,33 @@
         <v>2713.17528</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4950.70497</v>
+        <v>4950.704970000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>5278.179069999999</v>
+        <v>5600.80287</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7210.18685</v>
+        <v>7260.285620000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>16843.98041</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10984.91054</v>
+        <v>10991.71753</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13291.82235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13325.58519</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15653.967</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>58.814</v>
@@ -1913,16 +1939,21 @@
         <v>540.2314500000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>5756.99057</v>
+        <v>5756.990569999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>814.9437100000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>785.5544100000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1690.557</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>132.40287</v>
@@ -1955,16 +1986,21 @@
         <v>1973.75401</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1707.09056</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1776.27294</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4680.195</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>660.61605</v>
+        <v>660.6160500000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>2590.639099999999</v>
@@ -1985,7 +2021,7 @@
         <v>397.95642</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>334.41461</v>
+        <v>334.40748</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1578.43727</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1096.67547</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>3576.226</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>12037.81367</v>
@@ -2015,31 +2056,36 @@
         <v>9313.268189999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>19661.16696</v>
+        <v>19661.39692</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>22217.38286</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>36186.60641</v>
+        <v>36722.7351</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>51010.86209</v>
+        <v>51102.63604</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>61011.74025999999</v>
+        <v>61011.74026</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>140957.1381</v>
+        <v>140969.48747</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>52984.68837</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>53037.92512000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>116143.829</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>35.18252</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>400.22102</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2321.97</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,32 +2164,37 @@
       <c r="M34" s="48" t="n">
         <v>1542.63568</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>78.241</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>3829.56541</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6395.72305</v>
+        <v>6395.723050000001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>8668.147050000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>13135.33342</v>
+        <v>13135.35409</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11346.28473</v>
+        <v>11346.29019</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7582.5279</v>
+        <v>7594.342079999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9701.12969</v>
+        <v>9701.301869999999</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>14961.61382</v>
@@ -2147,16 +2203,21 @@
         <v>23097.35927</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12708.14765</v>
+        <v>12718.30046</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13536.26153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>13921.72051</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>21071.156</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>13387.18575</v>
@@ -2168,34 +2229,39 @@
         <v>22123.80117</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>26549.85561</v>
+        <v>26551.43948</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>28263.27468</v>
+        <v>28263.31746</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>33678.15343999999</v>
+        <v>33678.15671</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>42589.41854</v>
+        <v>42977.02961999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>60846.05424999999</v>
+        <v>61026.80576</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>75021.98643999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>142838.04442</v>
+        <v>142843.94172</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>73900.20749000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>73963.70075</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>134746.16</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>242.76231</v>
@@ -2207,16 +2273,16 @@
         <v>69.95171999999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>97.01524999999999</v>
+        <v>97.01525000000001</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>118.11422</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>149.90214</v>
+        <v>149.90539</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>253.72408</v>
+        <v>256.2431</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>451.56046</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>814.47614</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1526.374</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>389.90916</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>998.07868</v>
+        <v>998.0786800000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>269.89359</v>
@@ -2255,10 +2326,10 @@
         <v>1232.99822</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6959.749970000001</v>
+        <v>6978.02173</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5410.48514</v>
+        <v>5489.19545</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>8080.55646</v>
@@ -2267,13 +2338,18 @@
         <v>7584.4457</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9686.863579999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9686.863579999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>10874.741</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>176.27157</v>
@@ -2291,7 +2367,7 @@
         <v>19.34453</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>41.09756</v>
+        <v>41.09755999999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>31.09142</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>11.04073</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>60.96</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>9911.207600000002</v>
+        <v>9911.2076</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>10303.71013</v>
@@ -2324,34 +2405,39 @@
         <v>15750.35533</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>19442.52332</v>
+        <v>19444.10545</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>22459.05579</v>
+        <v>22459.09857</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>26227.88039</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>28895.67696</v>
+        <v>29262.41495</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>46029.98346</v>
+        <v>46110.13143</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>50895.3744</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>132142.22807</v>
+        <v>132147.0842</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>60646.36766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>60682.50871</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>117210.023</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.72301</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>378.42855</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>921.12</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.90845</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2662.40365</v>
+        <v>2662.403649999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3453.679679999999</v>
+        <v>3453.67968</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>5856.365269999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6276.1169</v>
+        <v>6276.118640000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5094.558140000001</v>
+        <v>5094.55814</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5376.275119999999</v>
+        <v>5376.275140000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6362.193480000001</v>
+        <v>6362.275790000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>8813.966749999998</v>
+        <v>8835.859979999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>13861.04667</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2101.60157</v>
+        <v>2102.64274</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2363.03083</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2390.38304</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4152.942</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>3834.7027</v>
@@ -2483,31 +2584,36 @@
         <v>7265.62562</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>55166.35839999999</v>
+        <v>55200.99569999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>14515.23244</v>
+        <v>14648.69018</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>78780.39208000002</v>
+        <v>78868.17172999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>102580.30592</v>
+        <v>102580.50677</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>117340.08341</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>52630.728</v>
+        <v>52706.08933</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>51930.77554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>52643.38951000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>68343.626</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>3741.45379</v>
@@ -2516,37 +2622,42 @@
         <v>3905.60231</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>9886.49136</v>
+        <v>9886.491360000002</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>7217.06918</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>51935.68016999999</v>
+        <v>51970.31747</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>11668.07626</v>
+        <v>11800.91149</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>45074.59215999999</v>
+        <v>45162.37181</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>55288.8383</v>
+        <v>55289.03915</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>101755.9196</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>35237.52869</v>
+        <v>35312.89002</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>38879.3214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>39557.50277000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>54853.003</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>93.24891000000001</v>
@@ -2564,13 +2675,13 @@
         <v>3230.67823</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2847.15618</v>
+        <v>2847.77869</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>33705.79992</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>47291.46761999999</v>
+        <v>47291.46762</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>15584.16381</v>
@@ -2579,55 +2690,65 @@
         <v>17393.19931</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>13051.45414</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>13085.88674</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>13490.623</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>53269.35767</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>56023.25626</v>
+        <v>56023.25625999999</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>110698.49117</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>46348.78555</v>
+        <v>46224.03083</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>27814.93768</v>
+        <v>27788.11038</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>151949.28382</v>
+        <v>151873.15063</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>152187.42422</v>
+        <v>153577.66148</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>214302.9174</v>
+        <v>212678.7027</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>190004.51638</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>221298.29608</v>
+        <v>220598.72708</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>225688.79514</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>225086.79186</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>319847.545</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6191.369640000001</v>
+        <v>6191.36964</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>2596.81747</v>
@@ -2639,31 +2760,36 @@
         <v>4151.47328</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5451.69058</v>
+        <v>5457.24789</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>14710.46389</v>
+        <v>14720.70439</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>20901.76171</v>
+        <v>20983.79607</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>18303.34825</v>
+        <v>18300.95936</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>69061.47953</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>90115.9939</v>
+        <v>90164.41834999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40470.30696</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>41178.10185</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>51617.463</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>110.79263</v>
@@ -2678,7 +2804,7 @@
         <v>57.98667</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>77.01565999999998</v>
+        <v>77.01566</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>157.96686</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>1097.91722</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>777.787</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>6080.577010000001</v>
+        <v>6080.57701</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>2569.29675</v>
@@ -2717,31 +2848,36 @@
         <v>4093.48661</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5374.674919999999</v>
+        <v>5380.232230000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>14552.49703</v>
+        <v>14562.73753</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>20615.72911</v>
+        <v>20697.76347</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>17463.89108</v>
+        <v>17461.50219</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>68458.62759</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>88157.88013999998</v>
+        <v>88206.30459</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>39372.38974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>40080.18463</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>50839.676</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>7276.66591</v>
@@ -2753,34 +2889,39 @@
         <v>45920.75042</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5095.58689</v>
+        <v>5097.79694</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5495.489189999999</v>
+        <v>5540.26873</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>27935.2377</v>
+        <v>27948.1321</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12338.57332</v>
+        <v>12365.14631</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>70079.87234999999</v>
+        <v>70352.69831000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>33295.81055</v>
+        <v>33295.81054999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>79018.68592999999</v>
+        <v>79092.47676999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>34941.17081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>35474.14785</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>55821.755</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>63.53739999999999</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>297.23941</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>319.752</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>309.9534200000001</v>
+        <v>309.95342</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>248.1431</v>
@@ -2834,7 +2980,7 @@
         <v>434.80041</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>654.09213</v>
+        <v>654.0921300000001</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>480.22798</v>
@@ -2843,25 +2989,30 @@
         <v>1273.96106</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1611.58071</v>
+        <v>1659.22432</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>452.2725</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>570.5476200000001</v>
+        <v>570.72722</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4173.80563</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4183.47187</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1109.292</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6903.175090000001</v>
+        <v>6903.17509</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>24714.79903</v>
@@ -2870,76 +3021,86 @@
         <v>45600.06312</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4404.034070000001</v>
+        <v>4406.24412</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4639.2872</v>
+        <v>4684.06674</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>27367.50688</v>
+        <v>27380.40128</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10924.96194</v>
+        <v>10951.53493</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>68236.82467</v>
+        <v>68462.00701999999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>32674.13961</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>78051.63264000001</v>
+        <v>78125.24387999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>30470.12577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>30993.43657</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>54392.711</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>52184.06139999999</v>
+        <v>52184.06140000001</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>33657.1316</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>68281.19826999998</v>
+        <v>68281.19826999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>45404.67194</v>
+        <v>45277.70717</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>27771.13907</v>
+        <v>27705.08954</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>138724.51001</v>
+        <v>138645.72292</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>160750.61261</v>
+        <v>162196.31124</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>162526.3933</v>
+        <v>160626.96375</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>225770.18536</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>232395.60405</v>
+        <v>231670.66866</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>231217.93129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>230790.74586</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>315643.253</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6240.75859</v>
+        <v>6240.758589999999</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>6220.66816</v>
@@ -2954,10 +3115,10 @@
         <v>15719.39701</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>30424.00065</v>
+        <v>30431.70716</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35392.89747</v>
+        <v>35498.26587999999</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>45878.46211</v>
@@ -2966,52 +3127,60 @@
         <v>51014.70974999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>55757.29678</v>
+        <v>55832.86081</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>67339.74742999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>67791.21694999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>90530.201</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>45943.30281</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>27436.46344</v>
+        <v>27436.46344000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>56927.33366</v>
+        <v>56927.33365999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>35886.77093</v>
+        <v>35759.80615999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>12051.74206</v>
+        <v>11985.69253</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>108300.50936</v>
+        <v>108214.01576</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>125357.71514</v>
+        <v>126698.04536</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>116647.93119</v>
+        <v>114748.50164</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>174755.47561</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>176638.30727</v>
+        <v>175837.80785</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>163878.18386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>162999.52891</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>225113.052</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>786</v>
@@ -3041,31 +3213,34 @@
         <v>921</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2124</v>
+        <v>2132</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2440</v>
+        <v>2471</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2804</v>
+        <v>2816</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3333</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3375</v>
+        <v>3455</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3618</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>